--- a/EasyAssetManager/wwwroot/UserSpace/ISHTIAQUE01/LOAN_WO.xlsx
+++ b/EasyAssetManager/wwwroot/UserSpace/ISHTIAQUE01/LOAN_WO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CTG 1</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>WO_AMOUNT</t>
+  </si>
+  <si>
+    <t>1950718000000550</t>
+  </si>
+  <si>
+    <t>1950718000000551</t>
+  </si>
+  <si>
+    <t>1950718000000552</t>
   </si>
 </sst>
 </file>
@@ -140,15 +149,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -158,6 +161,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,32 +482,32 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -508,14 +518,14 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>46876876764</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
         <v>1444</v>
       </c>
-      <c r="E2" s="5">
-        <v>1234</v>
+      <c r="E2" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,14 +535,14 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>47254672576</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
         <v>1444</v>
       </c>
-      <c r="E3" s="5">
-        <v>1345</v>
+      <c r="E3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -542,17 +552,18 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>57654672546</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
         <v>1444</v>
       </c>
-      <c r="E4" s="5">
-        <v>1456</v>
+      <c r="E4" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EasyAssetManager/wwwroot/UserSpace/ISHTIAQUE01/LOAN_WO.xlsx
+++ b/EasyAssetManager/wwwroot/UserSpace/ISHTIAQUE01/LOAN_WO.xlsx
@@ -14,15 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>CTG 1</t>
-  </si>
-  <si>
-    <t>CTG 2</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>WO_AMOUNT</t>
+  </si>
+  <si>
+    <t>1950718000000550</t>
+  </si>
+  <si>
+    <t>1950718000000551</t>
+  </si>
+  <si>
+    <t>1950718000000552</t>
+  </si>
+  <si>
+    <t>OS_AMOUNT</t>
+  </si>
+  <si>
+    <t>WO_DATE</t>
   </si>
   <si>
     <t>AREA_CODE</t>
@@ -31,22 +40,19 @@
     <t>AREA_NAME</t>
   </si>
   <si>
-    <t>LOAN_NUMBER</t>
-  </si>
-  <si>
-    <t>LOAN_OUTSTANDING</t>
-  </si>
-  <si>
-    <t>WO_AMOUNT</t>
-  </si>
-  <si>
-    <t>1950718000000550</t>
-  </si>
-  <si>
-    <t>1950718000000551</t>
-  </si>
-  <si>
-    <t>1950718000000552</t>
+    <t>BRANCH_CODE</t>
+  </si>
+  <si>
+    <t>BRANCH_NAME</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,21 +132,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -151,23 +142,21 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,87 +468,113 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1444</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1444</v>
+      </c>
+      <c r="F3" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="E4" s="2">
         <v>1444</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1444</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1444</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
+      <c r="F4" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6">
+        <v>44039</v>
       </c>
     </row>
   </sheetData>
